--- a/pricing/ab3-sizing-20210303-2030mt.xlsx
+++ b/pricing/ab3-sizing-20210303-2030mt.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernstric/Documents/GitHub/AWS-Builder-EKS/pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E28413DC-7570-F648-B70D-2E15E0D2F153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E633D32-1F06-5C4F-9F01-FBEE0CC53708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="1220" windowWidth="40380" windowHeight="25120" xr2:uid="{5EEDFC2B-18EE-8A46-B39A-959F96F9001C}"/>
+    <workbookView xWindow="8580" yWindow="3880" windowWidth="35300" windowHeight="13260" activeTab="2" xr2:uid="{5EEDFC2B-18EE-8A46-B39A-959F96F9001C}"/>
   </bookViews>
   <sheets>
     <sheet name="EKS-MN-Fargate" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ECR" sheetId="2" r:id="rId2"/>
+    <sheet name="RDS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>EKS - max nuber pf pods / node (4 to 737)</t>
   </si>
@@ -308,6 +309,54 @@
   </si>
   <si>
     <t>Total (per month)</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ecr/pricing/</t>
+  </si>
+  <si>
+    <t>ECR</t>
+  </si>
+  <si>
+    <t>Number of applications</t>
+  </si>
+  <si>
+    <t>number of images per application</t>
+  </si>
+  <si>
+    <t>Ave Size of image</t>
+  </si>
+  <si>
+    <t>Total  amount of storage</t>
+  </si>
+  <si>
+    <t>Total number of images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECR storage price </t>
+  </si>
+  <si>
+    <t>Total ECR Cost</t>
+  </si>
+  <si>
+    <t>Data Xfer in price</t>
+  </si>
+  <si>
+    <t>Data Xfer out price</t>
+  </si>
+  <si>
+    <t>1 GB &lt; amount &lt; 9.999 TB</t>
+  </si>
+  <si>
+    <t>amount &lt;= 1 GB</t>
+  </si>
+  <si>
+    <t>Amount of Data Xfer out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Xfer out cost </t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/rds/aurora/pricing/</t>
   </si>
 </sst>
 </file>
@@ -318,7 +367,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,6 +416,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -511,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -592,6 +649,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -648,6 +706,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -965,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61BF14B-0124-4B48-A35F-51EF12A015A9}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="B8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,7 +1040,7 @@
     <col min="9" max="9" width="6.33203125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
@@ -1047,10 +1109,10 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="40" t="s">
         <v>29</v>
       </c>
       <c r="L11" s="8"/>
@@ -1076,7 +1138,7 @@
       <c r="J12" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="41" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="8"/>
@@ -1230,10 +1292,10 @@
       <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="3:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="56">
         <f>D15</f>
         <v>73</v>
       </c>
@@ -1263,10 +1325,10 @@
       <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="3:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="58">
         <f>H44</f>
         <v>2182.3500000000004</v>
       </c>
@@ -1296,10 +1358,10 @@
       <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="3:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="58">
         <f>O26</f>
         <v>1870.32</v>
       </c>
@@ -1329,10 +1391,10 @@
       <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="3:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="60">
         <f>H75</f>
         <v>420.03500000000003</v>
       </c>
@@ -1349,10 +1411,10 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="3:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="62">
         <f>SUM(D18:D21)</f>
         <v>4545.7049999999999</v>
       </c>
@@ -1550,7 +1612,7 @@
       <c r="P33" s="8"/>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="42" t="s">
         <v>79</v>
       </c>
       <c r="H34" s="18">
@@ -1567,7 +1629,7 @@
       <c r="P34" s="8"/>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H35" s="23">
@@ -1610,7 +1672,7 @@
       <c r="P37" s="8"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H38" s="10">
@@ -1649,7 +1711,7 @@
       <c r="P39" s="8"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="43" t="s">
         <v>82</v>
       </c>
       <c r="H40" s="10">
@@ -1678,7 +1740,7 @@
       <c r="L41" s="25"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="42" t="s">
         <v>83</v>
       </c>
       <c r="H42" s="23">
@@ -1725,7 +1787,7 @@
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="7:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="47" t="s">
         <v>58</v>
       </c>
       <c r="H49" s="7"/>
@@ -1737,10 +1799,10 @@
       <c r="G50" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="43">
+      <c r="H50" s="44">
         <v>24</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="48" t="s">
         <v>62</v>
       </c>
       <c r="J50" s="8"/>
@@ -1782,11 +1844,11 @@
       <c r="G54" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H54" s="43">
+      <c r="H54" s="44">
         <f>H52*H53</f>
         <v>240</v>
       </c>
-      <c r="I54" s="47" t="s">
+      <c r="I54" s="48" t="s">
         <v>62</v>
       </c>
       <c r="J54" s="8"/>
@@ -1826,11 +1888,11 @@
       <c r="G58" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H58" s="43">
+      <c r="H58" s="44">
         <f>H56*H57</f>
         <v>1080</v>
       </c>
-      <c r="I58" s="47" t="s">
+      <c r="I58" s="48" t="s">
         <v>62</v>
       </c>
       <c r="J58" s="8"/>
@@ -1872,11 +1934,11 @@
       <c r="G62" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H62" s="43">
+      <c r="H62" s="44">
         <f>H61*H60</f>
         <v>30</v>
       </c>
-      <c r="I62" s="47" t="s">
+      <c r="I62" s="48" t="s">
         <v>62</v>
       </c>
       <c r="J62" s="8"/>
@@ -1890,7 +1952,7 @@
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G64" s="41" t="s">
+      <c r="G64" s="42" t="s">
         <v>71</v>
       </c>
       <c r="H64" s="7">
@@ -1902,7 +1964,7 @@
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G65" s="41" t="s">
+      <c r="G65" s="42" t="s">
         <v>72</v>
       </c>
       <c r="H65" s="7">
@@ -1913,24 +1975,24 @@
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G66" s="48" t="s">
+      <c r="G66" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="44">
+      <c r="H66" s="45">
         <f>H64*H65</f>
         <v>12</v>
       </c>
-      <c r="I66" s="47" t="s">
+      <c r="I66" s="48" t="s">
         <v>62</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="9"/>
     </row>
     <row r="67" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G67" s="49" t="s">
+      <c r="G67" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="H67" s="50">
+      <c r="H67" s="51">
         <f>H50+H54+H58+H62+H66</f>
         <v>1386</v>
       </c>
@@ -1954,7 +2016,7 @@
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G69" s="49" t="s">
+      <c r="G69" s="50" t="s">
         <v>77</v>
       </c>
       <c r="H69" s="23">
@@ -1968,14 +2030,14 @@
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G70" s="41"/>
+      <c r="G70" s="42"/>
       <c r="H70" s="7"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G71" s="49" t="s">
+      <c r="G71" s="50" t="s">
         <v>76</v>
       </c>
       <c r="H71" s="7">
@@ -1988,10 +2050,10 @@
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G72" s="51" t="s">
+      <c r="G72" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="H72" s="45">
+      <c r="H72" s="46">
         <v>0.5</v>
       </c>
       <c r="I72" s="8"/>
@@ -1999,7 +2061,7 @@
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G73" s="49" t="s">
+      <c r="G73" s="50" t="s">
         <v>89</v>
       </c>
       <c r="H73" s="23">
@@ -2013,17 +2075,17 @@
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G74" s="41"/>
+      <c r="G74" s="42"/>
       <c r="H74" s="7"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="7:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G75" s="52" t="s">
+      <c r="G75" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="H75" s="53">
+      <c r="H75" s="54">
         <f>H69+H73</f>
         <v>420.03500000000003</v>
       </c>
@@ -2091,12 +2153,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30D4AC4-ECC2-5949-992A-0F67942F787B}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C3" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="8">
+        <f>'EKS-MN-Fargate'!H14*2</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="8">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="8">
+        <f>D4*D5</f>
+        <v>200</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="8">
+        <f>D6*D7</f>
+        <v>80</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="38">
+        <f>D8*D9</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="14"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="64">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="14"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="64">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="64">
+        <v>0.09</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="64">
+        <f>D16*D18</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="14"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="22">
+        <f>D10+D12+D19</f>
+        <v>8</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{619DE179-F8FE-5F4F-8D71-C37D65245162}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FEAC72-BD1E-8343-A172-43BB1DB1C855}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{F4338FB4-07C1-AE43-B801-DE623A0D0D66}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>